--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D30489-E9D1-7247-A614-60D22C8E4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240547B2-72FA-C944-8A6D-488889F63772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42140" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64600" yWindow="740" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2460,9 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2475,7 +2473,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>495</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
@@ -7320,7 +7318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7410,7 +7408,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7424,10 +7422,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>495</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>73</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240547B2-72FA-C944-8A6D-488889F63772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD38142-5542-BF47-87D0-91325E9A75E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64600" yWindow="740" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="7" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="566">
   <si>
     <t>Epoch</t>
   </si>
@@ -1538,15 +1538,6 @@
     <t>&lt;p&gt;Blinding and unblinding text here please&lt;/p&gt;</t>
   </si>
   <si>
-    <t>sectionNumber1</t>
-  </si>
-  <si>
-    <t>sectionNumber2</t>
-  </si>
-  <si>
-    <t>sectionNumber3</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -1683,6 +1674,90 @@
   </si>
   <si>
     <t>Old population</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1766,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1841,17 +1916,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2460,7 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2473,7 +2545,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
@@ -3352,1294 +3424,1232 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="81.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="E6" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="E9" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="E10" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C12" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C14" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C15" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C16" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="28"/>
-      <c r="C25" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="28"/>
-      <c r="C26" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="28"/>
-      <c r="C27" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="28"/>
-      <c r="C28" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B64" s="28"/>
+      <c r="C64" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="C75" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B81" s="28"/>
+      <c r="C81" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C38" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C39" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C41" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C42" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C43" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C46" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C47" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C48" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C49" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="B92" s="28"/>
+      <c r="C92" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="C94" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B97" s="28"/>
+      <c r="C97" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B98" s="28"/>
+      <c r="C98" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="C102" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B103" s="28"/>
+      <c r="C103" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C52" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C53" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C54" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="28">
-        <v>7.2</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="28">
-        <v>7.3</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="28">
-        <v>7.4</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
+      <c r="B107" s="28"/>
+      <c r="C107" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B110" s="28"/>
+      <c r="C110" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B111" s="28"/>
+      <c r="C111" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B112" s="28"/>
+      <c r="C112" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="28">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C62" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C63" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C64" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C65" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C66" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="28">
-        <v>8.4</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C68" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C69" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C70" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C71" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C72" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C73" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C74" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C75" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C76" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C77" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="28">
-        <v>8.5</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C79" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C80" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B81" s="28">
-        <v>8.6</v>
-      </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C82" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C83" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C84" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C85" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C86" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B88" s="28">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" s="28">
-        <v>8.9</v>
-      </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C91" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="30" t="s">
+      <c r="B113" s="28"/>
+      <c r="C113" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="28">
-        <v>9.1</v>
-      </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B94" s="28">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C95" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C96" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C97" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C98" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C99" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B100" s="28">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B101" s="28">
-        <v>9.4</v>
-      </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B102" s="28">
-        <v>9.5</v>
-      </c>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B103" s="28">
-        <v>9.6</v>
-      </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B104" s="28">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B105" s="28">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B106" s="28">
-        <v>9.9</v>
-      </c>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="30" t="s">
+      <c r="B117" s="28"/>
+      <c r="C117" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B118" s="28"/>
+      <c r="C118" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B119" s="28"/>
+      <c r="C119" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B121" s="28"/>
+      <c r="C121" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B108" s="28">
-        <v>10.1</v>
-      </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B109" s="28">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B110" s="28">
-        <v>10.3</v>
-      </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B111" s="28">
-        <v>10.4</v>
-      </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B112" s="28">
-        <v>10.5</v>
-      </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
+      <c r="B122" s="28"/>
+      <c r="C122" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B123" s="28"/>
+      <c r="C123" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124" s="28"/>
+      <c r="C124" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125" s="28"/>
+      <c r="C125" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B126" s="28"/>
+      <c r="C126" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B127" s="28"/>
+      <c r="C127" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B129" s="28"/>
+      <c r="C129" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B114" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B115" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B116" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="30" t="s">
+      <c r="B130" s="28"/>
+      <c r="C130" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B118" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B119" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B120" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B121" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B123" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C124" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D124" s="28"/>
-      <c r="E124" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C125" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="D125" s="28"/>
-      <c r="E125" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C126" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D126" s="28"/>
-      <c r="E126" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B127" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B128" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B129" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="30" t="s">
-        <v>506</v>
-      </c>
       <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -6644,34 +6654,34 @@
       <c r="A1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -6699,54 +6709,54 @@
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -6813,16 +6823,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7015,10 +7025,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7422,7 +7432,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>64</v>
@@ -7444,10 +7454,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -7464,10 +7474,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -7484,10 +7494,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4" t="s">
         <v>537</v>
-      </c>
-      <c r="B4" t="s">
-        <v>540</v>
       </c>
       <c r="C4">
         <v>20</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD38142-5542-BF47-87D0-91325E9A75E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF259B27-CA60-F94C-9CB3-F22C2F34423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="7" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,7 @@
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
     <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
     <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="559">
   <si>
     <t>Epoch</t>
   </si>
@@ -1062,12 +1061,6 @@
     <t>Other Therapy</t>
   </si>
   <si>
-    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIP</t>
-  </si>
-  <si>
-    <t>WITHDRAWAL FROM TRIAL</t>
-  </si>
-  <si>
     <t>Discontinuation of Trial Intervention</t>
   </si>
   <si>
@@ -1356,18 +1349,6 @@
     <t>4.2.3</t>
   </si>
   <si>
-    <t>5.3.1</t>
-  </si>
-  <si>
-    <t>5.3.2</t>
-  </si>
-  <si>
-    <t>5.3.3</t>
-  </si>
-  <si>
-    <t>5.3.4</t>
-  </si>
-  <si>
     <t>6.3.1</t>
   </si>
   <si>
@@ -1410,9 +1391,6 @@
     <t>7.1.3</t>
   </si>
   <si>
-    <t>8.3.1.</t>
-  </si>
-  <si>
     <t>8.3.2</t>
   </si>
   <si>
@@ -1423,9 +1401,6 @@
   </si>
   <si>
     <t>8.3.5</t>
-  </si>
-  <si>
-    <t>8.4.1.</t>
   </si>
   <si>
     <t>8.4.2</t>
@@ -1759,12 +1734,15 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>objectiveName</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1802,12 +1780,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1841,7 +1813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1905,8 +1877,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2532,7 +2502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2545,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
@@ -3426,7 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3439,16 +3411,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3456,14 +3428,14 @@
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>293</v>
@@ -3471,7 +3443,7 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>294</v>
@@ -3479,7 +3451,7 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>295</v>
@@ -3487,7 +3459,7 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>289</v>
@@ -3495,7 +3467,7 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>296</v>
@@ -3503,7 +3475,7 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>297</v>
@@ -3511,7 +3483,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>290</v>
@@ -3519,7 +3491,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>291</v>
@@ -3527,7 +3499,7 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>298</v>
@@ -3535,1121 +3507,1121 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B12" s="28"/>
+        <v>418</v>
+      </c>
+      <c r="B12" s="26"/>
       <c r="C12" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B13" s="28"/>
+        <v>428</v>
+      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="28"/>
+        <v>429</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B15" s="28"/>
+        <v>430</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B16" s="28"/>
+        <v>431</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B17" s="28"/>
+        <v>507</v>
+      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>508</v>
+      </c>
+      <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B19" s="28"/>
+        <v>485</v>
+      </c>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B20" s="28"/>
+        <v>509</v>
+      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B21" s="28"/>
+        <v>510</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="28"/>
+        <v>511</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
         <v>308</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B23" s="28"/>
+        <v>512</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
         <v>309</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B24" s="28"/>
+        <v>513</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B25" s="28"/>
+        <v>474</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B26" s="28"/>
+        <v>475</v>
+      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B27" s="28"/>
+        <v>476</v>
+      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B28" s="28"/>
+        <v>477</v>
+      </c>
+      <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B29" s="28"/>
+        <v>514</v>
+      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B30" s="28"/>
+        <v>486</v>
+      </c>
+      <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B31" s="28"/>
+        <v>515</v>
+      </c>
+      <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B32" s="28"/>
+        <v>516</v>
+      </c>
+      <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="28"/>
+        <v>517</v>
+      </c>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B34" s="28"/>
+        <v>432</v>
+      </c>
+      <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B35" s="28"/>
+        <v>518</v>
+      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" s="28"/>
+        <v>519</v>
+      </c>
+      <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B37" s="28"/>
+        <v>433</v>
+      </c>
+      <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B38" s="28"/>
+        <v>434</v>
+      </c>
+      <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B39" s="28"/>
+        <v>435</v>
+      </c>
+      <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B40" s="28"/>
+        <v>520</v>
+      </c>
+      <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B41" s="28"/>
+        <v>436</v>
+      </c>
+      <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B42" s="28"/>
+        <v>437</v>
+      </c>
+      <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B43" s="28"/>
+        <v>438</v>
+      </c>
+      <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
         <v>329</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B44" s="28"/>
+        <v>521</v>
+      </c>
+      <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B45" s="28"/>
+        <v>522</v>
+      </c>
+      <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="28"/>
+        <v>439</v>
+      </c>
+      <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B47" s="28"/>
+        <v>440</v>
+      </c>
+      <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B48" s="28"/>
+        <v>441</v>
+      </c>
+      <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B49" s="28"/>
+        <v>442</v>
+      </c>
+      <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B50" s="28"/>
+        <v>487</v>
+      </c>
+      <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B51" s="28"/>
+        <v>523</v>
+      </c>
+      <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B52" s="28"/>
+        <v>443</v>
+      </c>
+      <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B53" s="28"/>
+        <v>444</v>
+      </c>
+      <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B54" s="28"/>
+        <v>445</v>
+      </c>
+      <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B55" s="28"/>
+        <v>531</v>
+      </c>
+      <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B56" s="28"/>
+        <v>532</v>
+      </c>
+      <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B57" s="28"/>
+        <v>533</v>
+      </c>
+      <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" s="28"/>
+        <v>488</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B59" s="28"/>
+        <v>534</v>
+      </c>
+      <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B60" s="28"/>
+        <v>535</v>
+      </c>
+      <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B61" s="28"/>
+        <v>536</v>
+      </c>
+      <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B62" s="28"/>
+        <v>478</v>
+      </c>
+      <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B63" s="28"/>
+        <v>446</v>
+      </c>
+      <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B64" s="28"/>
+        <v>447</v>
+      </c>
+      <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B65" s="28"/>
+        <v>448</v>
+      </c>
+      <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B66" s="28"/>
+        <v>449</v>
+      </c>
+      <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B67" s="28"/>
+        <v>537</v>
+      </c>
+      <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B68" s="28"/>
+        <v>479</v>
+      </c>
+      <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B69" s="28"/>
+        <v>450</v>
+      </c>
+      <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B70" s="28"/>
+        <v>451</v>
+      </c>
+      <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B71" s="28"/>
+        <v>452</v>
+      </c>
+      <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B72" s="28"/>
+        <v>453</v>
+      </c>
+      <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B73" s="28"/>
+        <v>454</v>
+      </c>
+      <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B74" s="28"/>
+        <v>455</v>
+      </c>
+      <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B75" s="28"/>
+        <v>456</v>
+      </c>
+      <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B76" s="28"/>
+        <v>457</v>
+      </c>
+      <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B77" s="28"/>
+        <v>458</v>
+      </c>
+      <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B78" s="28"/>
+        <v>538</v>
+      </c>
+      <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B79" s="28"/>
+        <v>459</v>
+      </c>
+      <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" s="28"/>
+        <v>460</v>
+      </c>
+      <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B81" s="28"/>
+        <v>539</v>
+      </c>
+      <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B82" s="28"/>
+        <v>461</v>
+      </c>
+      <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B83" s="28"/>
+        <v>462</v>
+      </c>
+      <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B84" s="28"/>
+        <v>463</v>
+      </c>
+      <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B85" s="28"/>
+        <v>464</v>
+      </c>
+      <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B86" s="28"/>
+        <v>465</v>
+      </c>
+      <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B87" s="28"/>
+        <v>540</v>
+      </c>
+      <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B88" s="28"/>
+        <v>541</v>
+      </c>
+      <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B89" s="28"/>
+        <v>542</v>
+      </c>
+      <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B90" s="28"/>
+        <v>534</v>
+      </c>
+      <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B91" s="28"/>
+        <v>480</v>
+      </c>
+      <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B92" s="28"/>
+        <v>489</v>
+      </c>
+      <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B93" s="28"/>
+        <v>543</v>
+      </c>
+      <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B94" s="28"/>
+        <v>544</v>
+      </c>
+      <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B95" s="28"/>
+        <v>466</v>
+      </c>
+      <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B96" s="28"/>
+        <v>467</v>
+      </c>
+      <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B97" s="28"/>
+        <v>468</v>
+      </c>
+      <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B98" s="28"/>
+        <v>469</v>
+      </c>
+      <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B99" s="28"/>
+        <v>470</v>
+      </c>
+      <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B100" s="28"/>
+        <v>545</v>
+      </c>
+      <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B101" s="28"/>
+        <v>546</v>
+      </c>
+      <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B102" s="28"/>
+        <v>547</v>
+      </c>
+      <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="B103" s="28"/>
+        <v>548</v>
+      </c>
+      <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B104" s="28"/>
+        <v>549</v>
+      </c>
+      <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B105" s="28"/>
+        <v>550</v>
+      </c>
+      <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="B106" s="28"/>
+        <v>551</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B107" s="28"/>
+        <v>490</v>
+      </c>
+      <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B108" s="28"/>
+        <v>552</v>
+      </c>
+      <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B109" s="28"/>
+        <v>553</v>
+      </c>
+      <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B110" s="28"/>
+        <v>554</v>
+      </c>
+      <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B111" s="28"/>
+        <v>555</v>
+      </c>
+      <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B112" s="28"/>
+        <v>556</v>
+      </c>
+      <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B113" s="28"/>
+        <v>491</v>
+      </c>
+      <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B114" s="28"/>
+        <v>506</v>
+      </c>
+      <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B115" s="28"/>
+        <v>505</v>
+      </c>
+      <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B116" s="28"/>
+        <v>504</v>
+      </c>
+      <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B117" s="28"/>
+        <v>492</v>
+      </c>
+      <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B118" s="28"/>
+        <v>503</v>
+      </c>
+      <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B119" s="28"/>
+        <v>502</v>
+      </c>
+      <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B120" s="28"/>
+        <v>501</v>
+      </c>
+      <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B121" s="28"/>
+        <v>500</v>
+      </c>
+      <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B122" s="28"/>
+        <v>493</v>
+      </c>
+      <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B123" s="28"/>
+        <v>499</v>
+      </c>
+      <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B124" s="28"/>
+        <v>471</v>
+      </c>
+      <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="28"/>
+        <v>472</v>
+      </c>
+      <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B126" s="28"/>
+        <v>473</v>
+      </c>
+      <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B127" s="28"/>
+        <v>498</v>
+      </c>
+      <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B128" s="28"/>
+        <v>497</v>
+      </c>
+      <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B129" s="28"/>
+        <v>496</v>
+      </c>
+      <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B130" s="28"/>
+        <v>494</v>
+      </c>
+      <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B131" s="28"/>
+        <v>495</v>
+      </c>
+      <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -4659,1867 +4631,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003C67-3768-3A4E-9F90-6843014614B3}">
-  <dimension ref="A1:O131"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I130"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="8" max="8" width="10.83203125" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="25">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="26" t="str">
-        <f>TEXT(H2,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="I2" t="s">
-        <v>293</v>
-      </c>
-      <c r="O2" s="26" t="str">
-        <f>TEXT(H3,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="I3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="26" t="str">
-        <f>TEXT(H4,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="I4" t="s">
-        <v>295</v>
-      </c>
-      <c r="O4" s="26" t="str">
-        <f>TEXT(H5,"0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="I5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>2.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="I6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="I7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="I8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="I9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="I10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>0.16737268518518519</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="I11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>4.2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>300</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>0.16806712962962964</v>
-      </c>
-      <c r="B13" t="s">
-        <v>301</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="I13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>0.1680787037037037</v>
-      </c>
-      <c r="B14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="I14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>0.16809027777777777</v>
-      </c>
-      <c r="B15" t="s">
-        <v>303</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="I15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H16" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>292</v>
-      </c>
-      <c r="H18" s="25">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B19" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>308</v>
-      </c>
-      <c r="H21" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>5.4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="25">
-        <v>5.4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H23" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
-        <v>0.21181712962962962</v>
-      </c>
-      <c r="B24" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="I24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
-        <v>0.21182870370370369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="I25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>0.21184027777777778</v>
-      </c>
-      <c r="B26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="I26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>0.21185185185185185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="I27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>315</v>
-      </c>
-      <c r="H28" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H29" s="25">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H30" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>318</v>
-      </c>
-      <c r="H31" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>319</v>
-      </c>
-      <c r="H32" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>0.25209490740740742</v>
-      </c>
-      <c r="B33" t="s">
-        <v>320</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="I33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>6.4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>321</v>
-      </c>
-      <c r="H34" s="25">
-        <v>6.4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>322</v>
-      </c>
-      <c r="H35" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>0.2534837962962963</v>
-      </c>
-      <c r="B36" t="s">
-        <v>323</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="I36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
-        <v>0.25349537037037034</v>
-      </c>
-      <c r="B37" t="s">
-        <v>324</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="I37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>0.25350694444444444</v>
-      </c>
-      <c r="B38" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="I38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>326</v>
-      </c>
-      <c r="H39" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>0.25417824074074075</v>
-      </c>
-      <c r="B40" t="s">
-        <v>327</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="I40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
-        <v>0.25418981481481479</v>
-      </c>
-      <c r="B41" t="s">
-        <v>328</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="I41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
-        <v>0.25420138888888888</v>
-      </c>
-      <c r="B42" t="s">
-        <v>329</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="I42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>330</v>
-      </c>
-      <c r="H43" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
-        <v>6.8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H44" s="25">
-        <v>6.8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>0.25556712962962963</v>
-      </c>
-      <c r="B45" t="s">
-        <v>332</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="I45" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>0.25557870370370367</v>
-      </c>
-      <c r="B46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="I46" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>0.25559027777777776</v>
-      </c>
-      <c r="B47" t="s">
-        <v>334</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="I47" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
-        <v>0.25560185185185186</v>
-      </c>
-      <c r="B48" t="s">
-        <v>335</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="I48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>336</v>
-      </c>
-      <c r="H49" s="25">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="H50" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>338</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="I51" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
-        <v>0.29237268518518517</v>
-      </c>
-      <c r="B52" t="s">
-        <v>339</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="I52" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
-        <v>0.29238425925925926</v>
-      </c>
-      <c r="B53" t="s">
-        <v>340</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="I53" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>0.29239583333333335</v>
-      </c>
-      <c r="B54" t="s">
-        <v>341</v>
-      </c>
-      <c r="H54" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>342</v>
-      </c>
-      <c r="H55" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>343</v>
-      </c>
-      <c r="H56" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="I56" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>344</v>
-      </c>
-      <c r="H57" s="25">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>345</v>
-      </c>
-      <c r="H58" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>346</v>
-      </c>
-      <c r="H59" s="25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I59" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B60" t="s">
-        <v>347</v>
-      </c>
-      <c r="H60" s="25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B61" t="s">
-        <v>348</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="I61" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="25">
-        <v>0.33542824074074074</v>
-      </c>
-      <c r="B62" t="s">
-        <v>349</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="I62" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="25">
-        <v>0.33543981481481483</v>
-      </c>
-      <c r="B63" t="s">
-        <v>350</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="I63" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="25">
-        <v>0.33545138888888887</v>
-      </c>
-      <c r="B64" t="s">
-        <v>351</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="I64" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="25">
-        <v>0.33546296296296302</v>
-      </c>
-      <c r="B65" t="s">
-        <v>352</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="I65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="25">
-        <v>0.33547453703703706</v>
-      </c>
-      <c r="B66" t="s">
-        <v>353</v>
-      </c>
-      <c r="H66" s="25">
-        <v>8.4</v>
-      </c>
-      <c r="I66" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="25">
-        <v>8.4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>354</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="I67" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="25">
-        <v>0.33612268518518523</v>
-      </c>
-      <c r="B68" t="s">
-        <v>355</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="I68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="25">
-        <v>0.33613425925925927</v>
-      </c>
-      <c r="B69" t="s">
-        <v>356</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="I69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="25">
-        <v>0.33614583333333337</v>
-      </c>
-      <c r="B70" t="s">
-        <v>357</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="I70" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="25">
-        <v>0.3361574074074074</v>
-      </c>
-      <c r="B71" t="s">
-        <v>358</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="I71" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="25">
-        <v>0.3361689814814815</v>
-      </c>
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="I72" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="25">
-        <v>0.33618055555555554</v>
-      </c>
-      <c r="B73" t="s">
-        <v>360</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="I73" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="25">
-        <v>0.33619212962962958</v>
-      </c>
-      <c r="B74" t="s">
-        <v>361</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="I74" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="25">
-        <v>0.33620370370370373</v>
-      </c>
-      <c r="B75" t="s">
-        <v>362</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="I75" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="25">
-        <v>0.33621527777777777</v>
-      </c>
-      <c r="B76" t="s">
-        <v>363</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="I76" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="25">
-        <v>0.33622685185185186</v>
-      </c>
-      <c r="B77" t="s">
-        <v>364</v>
-      </c>
-      <c r="H77" s="25">
-        <v>8.5</v>
-      </c>
-      <c r="I77" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="25">
-        <v>8.5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>365</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="I78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="25">
-        <v>0.33681712962962962</v>
-      </c>
-      <c r="B79" t="s">
-        <v>366</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="I79" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="25">
-        <v>0.33682870370370371</v>
-      </c>
-      <c r="B80" t="s">
-        <v>367</v>
-      </c>
-      <c r="H80" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="I80" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>368</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="I81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="25">
-        <v>0.33751157407407412</v>
-      </c>
-      <c r="B82" t="s">
-        <v>369</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="I82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="25">
-        <v>0.33752314814814816</v>
-      </c>
-      <c r="B83" t="s">
-        <v>370</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="I83" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="25">
-        <v>0.33753472222222225</v>
-      </c>
-      <c r="B84" t="s">
-        <v>371</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="I84" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="25">
-        <v>0.33754629629629629</v>
-      </c>
-      <c r="B85" t="s">
-        <v>372</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="I85" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="25">
-        <v>0.33755787037037038</v>
-      </c>
-      <c r="B86" t="s">
-        <v>373</v>
-      </c>
-      <c r="H86" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I86" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B87" t="s">
-        <v>374</v>
-      </c>
-      <c r="H87" s="25">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I87" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="25">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B88" t="s">
-        <v>375</v>
-      </c>
-      <c r="H88" s="25">
-        <v>8.9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="25">
-        <v>8.9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>376</v>
-      </c>
-      <c r="H89" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>377</v>
-      </c>
-      <c r="H90" s="25">
-        <v>8.11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="25">
-        <v>8.11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>378</v>
-      </c>
-      <c r="H91" s="25">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="25">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>379</v>
-      </c>
-      <c r="H92" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>380</v>
-      </c>
-      <c r="H93" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I93" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B94" t="s">
-        <v>381</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="I94" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="25">
-        <v>0.37640046296296298</v>
-      </c>
-      <c r="B95" t="s">
-        <v>382</v>
-      </c>
-      <c r="H95" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="I95" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="25">
-        <v>0.37641203703703702</v>
-      </c>
-      <c r="B96" t="s">
-        <v>383</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="I96" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="25">
-        <v>0.37642361111111106</v>
-      </c>
-      <c r="B97" t="s">
-        <v>384</v>
-      </c>
-      <c r="H97" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="I97" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="25">
-        <v>0.37643518518518521</v>
-      </c>
-      <c r="B98" t="s">
-        <v>385</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="I98" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="25">
-        <v>0.37644675925925924</v>
-      </c>
-      <c r="B99" t="s">
-        <v>386</v>
-      </c>
-      <c r="H99" s="25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I99" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B100" t="s">
-        <v>387</v>
-      </c>
-      <c r="H100" s="25">
-        <v>9.4</v>
-      </c>
-      <c r="I100" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
-        <v>9.4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>388</v>
-      </c>
-      <c r="H101" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="I101" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>389</v>
-      </c>
-      <c r="H102" s="25">
-        <v>9.6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="25">
-        <v>9.6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>390</v>
-      </c>
-      <c r="H103" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I103" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B104" t="s">
-        <v>391</v>
-      </c>
-      <c r="H104" s="25">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I104" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="25">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B105" t="s">
-        <v>392</v>
-      </c>
-      <c r="H105" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>393</v>
-      </c>
-      <c r="H106" s="25">
-        <v>10</v>
-      </c>
-      <c r="I106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="25">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>394</v>
-      </c>
-      <c r="H107" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="B108" t="s">
-        <v>395</v>
-      </c>
-      <c r="H108" s="25">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I108" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="25">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B109" t="s">
-        <v>396</v>
-      </c>
-      <c r="H109" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="I109" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>397</v>
-      </c>
-      <c r="H110" s="25">
-        <v>10.4</v>
-      </c>
-      <c r="I110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="25">
-        <v>10.4</v>
-      </c>
-      <c r="B111" t="s">
-        <v>398</v>
-      </c>
-      <c r="H111" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>399</v>
-      </c>
-      <c r="H112" s="25">
-        <v>11</v>
-      </c>
-      <c r="I112" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="25">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>400</v>
-      </c>
-      <c r="H113" s="25">
-        <v>11.1</v>
-      </c>
-      <c r="I113" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="25">
-        <v>11.1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>401</v>
-      </c>
-      <c r="H114" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="I114" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="B115" t="s">
-        <v>402</v>
-      </c>
-      <c r="H115" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="I115" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>403</v>
-      </c>
-      <c r="H116" s="25">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="25">
-        <v>12</v>
-      </c>
-      <c r="B117" t="s">
-        <v>404</v>
-      </c>
-      <c r="H117" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>405</v>
-      </c>
-      <c r="H118" s="25">
-        <v>12.2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="25">
-        <v>12.2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>406</v>
-      </c>
-      <c r="H119" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="I119" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>407</v>
-      </c>
-      <c r="H120" s="25">
-        <v>12.4</v>
-      </c>
-      <c r="I120" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="25">
-        <v>12.4</v>
-      </c>
-      <c r="B121" t="s">
-        <v>408</v>
-      </c>
-      <c r="H121" s="25">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="25">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>409</v>
-      </c>
-      <c r="H122" s="25">
-        <v>13.1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="25">
-        <v>13.1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>410</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="I123" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="25">
-        <v>0.54237268518518522</v>
-      </c>
-      <c r="B124" t="s">
-        <v>411</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="I124" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="25">
-        <v>0.54238425925925926</v>
-      </c>
-      <c r="B125" t="s">
-        <v>412</v>
-      </c>
-      <c r="H125" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="I125" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="25">
-        <v>0.5423958333333333</v>
-      </c>
-      <c r="B126" t="s">
-        <v>413</v>
-      </c>
-      <c r="H126" s="25">
-        <v>13.2</v>
-      </c>
-      <c r="I126" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="25">
-        <v>13.2</v>
-      </c>
-      <c r="B127" t="s">
-        <v>414</v>
-      </c>
-      <c r="H127" s="25">
-        <v>13.3</v>
-      </c>
-      <c r="I127" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="25">
-        <v>13.3</v>
-      </c>
-      <c r="B128" t="s">
-        <v>415</v>
-      </c>
-      <c r="H128" s="25">
-        <v>13.4</v>
-      </c>
-      <c r="I128" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="25">
-        <v>13.4</v>
-      </c>
-      <c r="B129" t="s">
-        <v>416</v>
-      </c>
-      <c r="H129" s="25">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="25">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>417</v>
-      </c>
-      <c r="H130" s="25">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="25">
-        <v>15</v>
-      </c>
-      <c r="B131" t="s">
-        <v>418</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6654,109 +4765,109 @@
       <c r="A1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -7025,10 +5136,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7432,7 +5543,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>64</v>
@@ -7454,10 +5565,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -7474,10 +5585,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -7494,10 +5605,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C4">
         <v>20</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF259B27-CA60-F94C-9CB3-F22C2F34423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7244BF-F8DB-F645-AF68-31CE851D2C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="556">
   <si>
     <t>Epoch</t>
   </si>
@@ -494,12 +494,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -512,16 +506,10 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
@@ -1736,6 +1724,9 @@
   </si>
   <si>
     <t>objectiveName</t>
+  </si>
+  <si>
+    <t>MULTIPLE-COLUMNS-1</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1851,9 +1842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1868,9 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1890,10 +1875,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2214,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,269 +2215,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2502,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2517,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
@@ -2980,29 +2884,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>111</v>
@@ -3011,7 +2915,7 @@
         <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3042,63 +2946,63 @@
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>187</v>
+      <c r="B1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3130,138 +3034,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3287,105 +3191,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>202</v>
+      <c r="B1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3411,1217 +3315,1217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>287</v>
+      <c r="A1" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="26"/>
+        <v>414</v>
+      </c>
+      <c r="B12" s="24"/>
       <c r="C12" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>424</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>425</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>426</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>427</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>503</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>504</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" s="26"/>
+        <v>481</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>506</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B22" s="26"/>
+        <v>507</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>508</v>
+      </c>
+      <c r="B23" s="24"/>
       <c r="C23" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B24" s="26"/>
+        <v>509</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B25" s="26"/>
+        <v>470</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B26" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B27" s="26"/>
+        <v>472</v>
+      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B28" s="26"/>
+        <v>473</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B29" s="26"/>
+        <v>510</v>
+      </c>
+      <c r="B29" s="24"/>
       <c r="C29" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>482</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B31" s="26"/>
+        <v>511</v>
+      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B32" s="26"/>
+        <v>512</v>
+      </c>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B33" s="26"/>
+        <v>513</v>
+      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B34" s="26"/>
+        <v>428</v>
+      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B35" s="26"/>
+        <v>514</v>
+      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>515</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>429</v>
+      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>430</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>431</v>
+      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B40" s="26"/>
+        <v>516</v>
+      </c>
+      <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B41" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B42" s="26"/>
+        <v>433</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B43" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B44" s="26"/>
+        <v>517</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B45" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B46" s="26"/>
+        <v>435</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="C46" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B47" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="B47" s="24"/>
       <c r="C47" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B48" s="26"/>
+        <v>437</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B49" s="26"/>
+        <v>438</v>
+      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B50" s="26"/>
+        <v>483</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B51" s="26"/>
+        <v>519</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B52" s="26"/>
+        <v>439</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B53" s="26"/>
+        <v>440</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="C53" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B54" s="26"/>
+        <v>441</v>
+      </c>
+      <c r="B54" s="24"/>
       <c r="C54" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B55" s="26"/>
+        <v>527</v>
+      </c>
+      <c r="B55" s="24"/>
       <c r="C55" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" s="26"/>
+        <v>528</v>
+      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B57" s="26"/>
+        <v>529</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B58" s="26"/>
+        <v>484</v>
+      </c>
+      <c r="B58" s="24"/>
       <c r="C58" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B59" s="26"/>
+        <v>530</v>
+      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B60" s="26"/>
+        <v>531</v>
+      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B61" s="26"/>
+        <v>532</v>
+      </c>
+      <c r="B61" s="24"/>
       <c r="C61" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B62" s="26"/>
+        <v>474</v>
+      </c>
+      <c r="B62" s="24"/>
       <c r="C62" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B63" s="26"/>
+        <v>442</v>
+      </c>
+      <c r="B63" s="24"/>
       <c r="C63" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B64" s="26"/>
+        <v>443</v>
+      </c>
+      <c r="B64" s="24"/>
       <c r="C64" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B65" s="26"/>
+        <v>444</v>
+      </c>
+      <c r="B65" s="24"/>
       <c r="C65" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B66" s="26"/>
+        <v>445</v>
+      </c>
+      <c r="B66" s="24"/>
       <c r="C66" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B67" s="26"/>
+        <v>533</v>
+      </c>
+      <c r="B67" s="24"/>
       <c r="C67" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>475</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B69" s="26"/>
+        <v>446</v>
+      </c>
+      <c r="B69" s="24"/>
       <c r="C69" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B70" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="26"/>
+        <v>448</v>
+      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B72" s="26"/>
+        <v>449</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B73" s="26"/>
+        <v>450</v>
+      </c>
+      <c r="B73" s="24"/>
       <c r="C73" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B74" s="26"/>
+        <v>451</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B75" s="26"/>
+        <v>452</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B76" s="26"/>
+        <v>453</v>
+      </c>
+      <c r="B76" s="24"/>
       <c r="C76" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B77" s="26"/>
+        <v>454</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B78" s="26"/>
+        <v>534</v>
+      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B79" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="B79" s="24"/>
       <c r="C79" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B80" s="26"/>
+        <v>456</v>
+      </c>
+      <c r="B80" s="24"/>
       <c r="C80" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B81" s="26"/>
+        <v>535</v>
+      </c>
+      <c r="B81" s="24"/>
       <c r="C81" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B82" s="26"/>
+        <v>457</v>
+      </c>
+      <c r="B82" s="24"/>
       <c r="C82" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" s="26"/>
+        <v>458</v>
+      </c>
+      <c r="B83" s="24"/>
       <c r="C83" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B84" s="26"/>
+        <v>459</v>
+      </c>
+      <c r="B84" s="24"/>
       <c r="C84" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B85" s="26"/>
+        <v>460</v>
+      </c>
+      <c r="B85" s="24"/>
       <c r="C85" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B86" s="26"/>
+        <v>461</v>
+      </c>
+      <c r="B86" s="24"/>
       <c r="C86" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B87" s="26"/>
+        <v>536</v>
+      </c>
+      <c r="B87" s="24"/>
       <c r="C87" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B88" s="26"/>
+        <v>537</v>
+      </c>
+      <c r="B88" s="24"/>
       <c r="C88" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B89" s="26"/>
+        <v>538</v>
+      </c>
+      <c r="B89" s="24"/>
       <c r="C89" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B90" s="26"/>
+        <v>530</v>
+      </c>
+      <c r="B90" s="24"/>
       <c r="C90" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B91" s="26"/>
+        <v>476</v>
+      </c>
+      <c r="B91" s="24"/>
       <c r="C91" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B92" s="26"/>
+        <v>485</v>
+      </c>
+      <c r="B92" s="24"/>
       <c r="C92" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B93" s="26"/>
+        <v>539</v>
+      </c>
+      <c r="B93" s="24"/>
       <c r="C93" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B94" s="26"/>
+        <v>540</v>
+      </c>
+      <c r="B94" s="24"/>
       <c r="C94" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B95" s="26"/>
+        <v>462</v>
+      </c>
+      <c r="B95" s="24"/>
       <c r="C95" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B96" s="26"/>
+        <v>463</v>
+      </c>
+      <c r="B96" s="24"/>
       <c r="C96" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B97" s="26"/>
+        <v>464</v>
+      </c>
+      <c r="B97" s="24"/>
       <c r="C97" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B98" s="26"/>
+        <v>465</v>
+      </c>
+      <c r="B98" s="24"/>
       <c r="C98" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B99" s="26"/>
+        <v>466</v>
+      </c>
+      <c r="B99" s="24"/>
       <c r="C99" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B100" s="26"/>
+        <v>541</v>
+      </c>
+      <c r="B100" s="24"/>
       <c r="C100" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B101" s="26"/>
+        <v>542</v>
+      </c>
+      <c r="B101" s="24"/>
       <c r="C101" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B102" s="26"/>
+        <v>543</v>
+      </c>
+      <c r="B102" s="24"/>
       <c r="C102" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B103" s="26"/>
+        <v>544</v>
+      </c>
+      <c r="B103" s="24"/>
       <c r="C103" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B104" s="26"/>
+        <v>545</v>
+      </c>
+      <c r="B104" s="24"/>
       <c r="C104" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B105" s="26"/>
+        <v>546</v>
+      </c>
+      <c r="B105" s="24"/>
       <c r="C105" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B106" s="26"/>
+        <v>547</v>
+      </c>
+      <c r="B106" s="24"/>
       <c r="C106" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B107" s="26"/>
+        <v>486</v>
+      </c>
+      <c r="B107" s="24"/>
       <c r="C107" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B108" s="26"/>
+        <v>548</v>
+      </c>
+      <c r="B108" s="24"/>
       <c r="C108" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B109" s="26"/>
+        <v>549</v>
+      </c>
+      <c r="B109" s="24"/>
       <c r="C109" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B110" s="26"/>
+        <v>550</v>
+      </c>
+      <c r="B110" s="24"/>
       <c r="C110" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B111" s="26"/>
+        <v>551</v>
+      </c>
+      <c r="B111" s="24"/>
       <c r="C111" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="B112" s="26"/>
+        <v>552</v>
+      </c>
+      <c r="B112" s="24"/>
       <c r="C112" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B113" s="26"/>
+        <v>487</v>
+      </c>
+      <c r="B113" s="24"/>
       <c r="C113" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B114" s="26"/>
+        <v>502</v>
+      </c>
+      <c r="B114" s="24"/>
       <c r="C114" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B115" s="26"/>
+        <v>501</v>
+      </c>
+      <c r="B115" s="24"/>
       <c r="C115" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B116" s="26"/>
+        <v>500</v>
+      </c>
+      <c r="B116" s="24"/>
       <c r="C116" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B117" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="B117" s="24"/>
       <c r="C117" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B118" s="26"/>
+        <v>499</v>
+      </c>
+      <c r="B118" s="24"/>
       <c r="C118" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B119" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="B119" s="24"/>
       <c r="C119" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B120" s="26"/>
+        <v>497</v>
+      </c>
+      <c r="B120" s="24"/>
       <c r="C120" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B121" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="B121" s="24"/>
       <c r="C121" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B122" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="B122" s="24"/>
       <c r="C122" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B123" s="26"/>
+        <v>495</v>
+      </c>
+      <c r="B123" s="24"/>
       <c r="C123" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B124" s="26"/>
+        <v>467</v>
+      </c>
+      <c r="B124" s="24"/>
       <c r="C124" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B125" s="26"/>
+        <v>468</v>
+      </c>
+      <c r="B125" s="24"/>
       <c r="C125" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B126" s="26"/>
+        <v>469</v>
+      </c>
+      <c r="B126" s="24"/>
       <c r="C126" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B127" s="26"/>
+        <v>494</v>
+      </c>
+      <c r="B127" s="24"/>
       <c r="C127" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B128" s="26"/>
+        <v>493</v>
+      </c>
+      <c r="B128" s="24"/>
       <c r="C128" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B129" s="26"/>
+        <v>492</v>
+      </c>
+      <c r="B129" s="24"/>
       <c r="C129" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B130" s="26"/>
+        <v>490</v>
+      </c>
+      <c r="B130" s="24"/>
       <c r="C130" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B131" s="26"/>
+        <v>491</v>
+      </c>
+      <c r="B131" s="24"/>
       <c r="C131" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4645,18 +4549,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4682,22 +4586,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4712,7 +4616,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4732,7 +4636,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4762,116 +4666,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>223</v>
+      <c r="A12" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4891,16 +4795,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4908,16 +4812,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4934,16 +4838,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4967,20 +4871,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4988,16 +4892,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5008,13 +4912,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5041,14 +4945,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>260</v>
+      <c r="A1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5056,10 +4960,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5067,10 +4971,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5078,10 +4982,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5089,10 +4993,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5121,13 +5025,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>178</v>
+      <c r="A1" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5136,22 +5040,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5171,13 +5075,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>182</v>
+      <c r="A3" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5199,7 +5103,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5221,7 +5125,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5243,7 +5147,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5265,30 +5169,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>220</v>
+      <c r="C7" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>221</v>
+      <c r="C8" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5302,14 +5206,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>222</v>
+      <c r="C9" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5391,17 +5295,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>282</v>
+      <c r="A1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5409,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5417,13 +5321,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,7 +5447,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>64</v>
@@ -5565,10 +5469,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -5585,10 +5489,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
         <v>524</v>
-      </c>
-      <c r="B3" t="s">
-        <v>528</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -5605,10 +5509,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C4">
         <v>20</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7244BF-F8DB-F645-AF68-31CE851D2C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12A549-E0A7-274A-804C-C4FEFA388229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="560">
   <si>
     <t>Epoch</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1723,10 +1720,25 @@
     <t/>
   </si>
   <si>
-    <t>objectiveName</t>
-  </si>
-  <si>
     <t>MULTIPLE-COLUMNS-1</t>
+  </si>
+  <si>
+    <t>objectiveXref</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1825,9 +1837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1875,10 +1884,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2199,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2215,11 +2224,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>555</v>
+      <c r="A1" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>553</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2227,7 +2236,7 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
@@ -2239,10 +2248,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3"/>
@@ -2251,10 +2260,10 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E4"/>
@@ -2263,10 +2272,10 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E5"/>
@@ -2275,11 +2284,11 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>140</v>
+      <c r="A6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2287,11 +2296,11 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>141</v>
+      <c r="A7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2299,11 +2308,11 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2311,11 +2320,11 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>148</v>
+      <c r="A9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2323,11 +2332,11 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>149</v>
+      <c r="A10" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2335,11 +2344,11 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>150</v>
+      <c r="A11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2347,11 +2356,11 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>152</v>
+      <c r="A12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2359,10 +2368,10 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E13"/>
@@ -2371,11 +2380,11 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>147</v>
+      <c r="A14" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2404,407 +2413,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2831,91 +2997,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
         <v>164</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>165</v>
       </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>166</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2944,65 +3110,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
         <v>187</v>
       </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3034,138 +3200,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3191,105 +3357,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3308,1224 +3474,1224 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>553</v>
+      <c r="A133" s="10" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>553</v>
+      <c r="A134" s="10" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>553</v>
+      <c r="A135" s="10" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>553</v>
+      <c r="A136" s="10" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>553</v>
+      <c r="A137" s="10" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -4549,18 +4715,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4586,22 +4752,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4616,7 +4782,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4636,7 +4802,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4666,116 +4832,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>219</v>
+      <c r="A12" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4795,16 +4961,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4812,16 +4978,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4838,16 +5004,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4871,20 +5037,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4892,16 +5058,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4912,17 +5078,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4945,14 +5111,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4960,10 +5126,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4971,10 +5137,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4982,10 +5148,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4993,10 +5159,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5025,13 +5191,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5040,22 +5206,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5075,13 +5241,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5101,9 +5267,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5123,9 +5289,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5145,9 +5311,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5167,32 +5333,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5206,14 +5372,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>218</v>
+      <c r="C9" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5295,17 +5461,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,7 +5479,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5321,13 +5487,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
         <v>280</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,7 +5521,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -5369,7 +5535,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -5383,7 +5549,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -5397,7 +5563,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5411,7 +5577,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -5447,7 +5613,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>64</v>
@@ -5469,10 +5635,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -5489,10 +5655,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -5509,10 +5675,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4">
         <v>20</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12A549-E0A7-274A-804C-C4FEFA388229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90783409-2B12-3345-B6C3-E2F699B39E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1739,6 +1733,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1884,10 +1884,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2225,10 +2225,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2264,7 +2264,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2276,7 +2276,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2297,10 +2297,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2415,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2435,85 +2435,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2522,16 +2522,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2540,16 +2540,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2558,16 +2558,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2576,16 +2576,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2594,16 +2594,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2612,16 +2612,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2630,16 +2630,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2648,16 +2648,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2666,16 +2666,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2684,16 +2684,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2998,90 +2998,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
         <v>165</v>
-      </c>
-      <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3110,65 +3110,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>187</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3201,137 +3201,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3358,104 +3358,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3482,16 +3482,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3500,1198 +3500,1198 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4715,18 +4715,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4738,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4768,7 +4768,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4782,33 +4782,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4833,10 +4833,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4844,10 +4844,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4857,41 +4857,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4902,7 +4902,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4913,7 +4913,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -4921,10 +4921,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4961,16 +4961,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4978,16 +4978,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5004,16 +5004,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5038,19 +5038,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,16 +5058,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5078,13 +5078,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,13 +5112,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5126,10 +5126,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5137,10 +5137,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5148,10 +5148,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5159,10 +5159,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5192,10 +5192,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5242,10 +5242,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5336,29 +5336,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5379,7 +5379,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -5462,16 +5462,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,13 +5487,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5521,72 +5521,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5613,84 +5613,84 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
         <v>520</v>
-      </c>
-      <c r="B2" t="s">
-        <v>522</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90783409-2B12-3345-B6C3-E2F699B39E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0257754-82BD-E848-9287-E762F1C377DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67600" yWindow="500" windowWidth="33000" windowHeight="22600" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="598">
   <si>
     <t>Epoch</t>
   </si>
@@ -233,34 +234,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1740,12 +1723,144 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1783,6 +1898,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1816,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1884,14 +2005,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,10 +2348,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2285,10 +2408,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2297,10 +2420,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2309,10 +2432,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2321,10 +2444,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2333,10 +2456,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2345,10 +2468,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2357,10 +2480,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2369,7 +2492,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2381,10 +2504,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2412,6 +2535,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2435,85 +2662,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2522,16 +2749,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2540,16 +2767,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2558,16 +2785,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2576,16 +2803,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2594,16 +2821,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2612,16 +2839,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2630,16 +2857,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2648,16 +2875,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2666,16 +2893,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2684,16 +2911,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2978,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2998,90 +3225,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
       <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3110,65 +3337,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3181,7 +3408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3201,137 +3428,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3358,104 +3585,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3464,7 +3691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
@@ -3482,16 +3709,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3500,1198 +3727,1198 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4715,18 +4942,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -4782,13 +5009,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4802,13 +5029,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4833,10 +5060,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4844,10 +5071,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4857,41 +5084,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4902,7 +5129,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4913,7 +5140,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -4921,10 +5148,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4932,7 +5159,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4941,7 +5168,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4961,16 +5188,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4978,16 +5205,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5004,16 +5231,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5038,19 +5265,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,16 +5285,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5078,13 +5305,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,13 +5339,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5126,10 +5353,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5137,10 +5364,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5148,10 +5375,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5159,10 +5386,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5192,10 +5419,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5216,10 +5443,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5242,10 +5469,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5336,29 +5563,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5379,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5462,16 +5689,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5479,7 +5706,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,13 +5714,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5506,87 +5733,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F9AFE-62C1-C445-A802-286AA50298F0}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="D2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M2" t="s">
+        <v>584</v>
+      </c>
+      <c r="N2" t="s">
+        <v>585</v>
+      </c>
+      <c r="O2" t="s">
+        <v>586</v>
+      </c>
+      <c r="P2" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" t="s">
+        <v>588</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>590</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>591</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>575</v>
+      </c>
+      <c r="E3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" t="s">
+        <v>578</v>
+      </c>
+      <c r="H3" t="s">
+        <v>593</v>
+      </c>
+      <c r="I3" t="s">
+        <v>580</v>
+      </c>
+      <c r="J3" t="s">
+        <v>594</v>
+      </c>
+      <c r="K3" t="s">
+        <v>595</v>
+      </c>
+      <c r="L3" t="s">
+        <v>596</v>
+      </c>
+      <c r="M3" t="s">
+        <v>584</v>
+      </c>
+      <c r="N3" t="s">
+        <v>585</v>
+      </c>
+      <c r="O3" t="s">
+        <v>586</v>
+      </c>
+      <c r="P3" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" t="s">
+        <v>588</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -5595,102 +5947,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
+        <v>557</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0257754-82BD-E848-9287-E762F1C377DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9B33B-A7AA-F04A-BF42-C094DF195F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="597">
   <si>
     <t>Epoch</t>
   </si>
@@ -249,37 +249,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1595,24 +1574,6 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>POP 2</t>
-  </si>
-  <si>
-    <t>POP 1</t>
-  </si>
-  <si>
-    <t>POP 3</t>
-  </si>
-  <si>
-    <t>Younger population</t>
-  </si>
-  <si>
-    <t>Mid range population</t>
-  </si>
-  <si>
-    <t>Old population</t>
-  </si>
-  <si>
     <t>sectionNumber</t>
   </si>
   <si>
@@ -1854,6 +1815,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2001,20 +1998,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2348,10 +2345,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2408,10 +2405,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2420,10 +2417,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2432,10 +2429,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2444,10 +2441,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2456,10 +2453,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2468,10 +2465,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2480,10 +2477,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2492,7 +2489,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2504,10 +2501,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2536,101 +2533,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2662,85 +2654,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2749,16 +2741,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2767,16 +2759,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2785,16 +2777,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2803,16 +2795,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2821,16 +2813,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2839,16 +2831,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2857,16 +2849,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2875,16 +2867,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2893,16 +2885,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2911,16 +2903,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3225,90 +3217,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3337,65 +3329,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3428,137 +3420,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3585,104 +3577,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3709,16 +3701,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3727,1198 +3719,1198 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4942,18 +4934,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5009,13 +5001,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5029,13 +5021,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5060,115 +5052,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+        <v>230</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+        <v>231</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5188,16 +5180,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5205,16 +5197,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5231,16 +5223,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5265,19 +5257,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5285,16 +5277,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5305,13 +5297,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5339,13 +5331,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5353,10 +5345,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5364,10 +5356,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5375,10 +5367,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5386,10 +5378,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5419,10 +5411,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5433,20 +5425,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5469,10 +5461,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5563,29 +5555,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5606,7 +5598,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5689,16 +5681,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5714,13 +5706,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5736,7 +5728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F9AFE-62C1-C445-A802-286AA50298F0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5766,179 +5758,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I2" t="s">
+        <v>567</v>
+      </c>
+      <c r="J2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K2" t="s">
+        <v>569</v>
+      </c>
+      <c r="L2" t="s">
+        <v>570</v>
+      </c>
+      <c r="M2" t="s">
+        <v>571</v>
+      </c>
+      <c r="N2" t="s">
+        <v>572</v>
+      </c>
+      <c r="O2" t="s">
         <v>573</v>
       </c>
-      <c r="C2" t="s">
+      <c r="P2" t="s">
         <v>574</v>
       </c>
-      <c r="D2" t="s">
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" t="s">
         <v>575</v>
       </c>
-      <c r="E2" t="s">
+      <c r="S2" s="26" t="s">
         <v>576</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="G2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J2" t="s">
-        <v>581</v>
-      </c>
-      <c r="K2" t="s">
-        <v>582</v>
-      </c>
-      <c r="L2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M2" t="s">
-        <v>584</v>
-      </c>
-      <c r="N2" t="s">
-        <v>585</v>
-      </c>
-      <c r="O2" t="s">
-        <v>586</v>
-      </c>
-      <c r="P2" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>180</v>
-      </c>
-      <c r="R2" t="s">
-        <v>588</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H3" t="s">
+        <v>580</v>
+      </c>
+      <c r="I3" t="s">
+        <v>567</v>
+      </c>
+      <c r="J3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K3" t="s">
+        <v>582</v>
+      </c>
+      <c r="L3" t="s">
+        <v>583</v>
+      </c>
+      <c r="M3" t="s">
+        <v>571</v>
+      </c>
+      <c r="N3" t="s">
+        <v>572</v>
+      </c>
+      <c r="O3" t="s">
+        <v>573</v>
+      </c>
+      <c r="P3" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" t="s">
         <v>575</v>
       </c>
-      <c r="E3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="G3" t="s">
-        <v>578</v>
-      </c>
-      <c r="H3" t="s">
-        <v>593</v>
-      </c>
-      <c r="I3" t="s">
-        <v>580</v>
-      </c>
-      <c r="J3" t="s">
-        <v>594</v>
-      </c>
-      <c r="K3" t="s">
-        <v>595</v>
-      </c>
-      <c r="L3" t="s">
-        <v>596</v>
-      </c>
-      <c r="M3" t="s">
-        <v>584</v>
-      </c>
-      <c r="N3" t="s">
-        <v>585</v>
-      </c>
-      <c r="O3" t="s">
-        <v>586</v>
-      </c>
-      <c r="P3" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>180</v>
-      </c>
-      <c r="R3" t="s">
-        <v>588</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>589</v>
+      <c r="S3" s="26" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5963,13 +5955,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -5977,13 +5969,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -5991,13 +5983,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9B33B-A7AA-F04A-BF42-C094DF195F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533F4D0E-10AF-A149-BF61-9411858CA4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="594">
   <si>
     <t>Epoch</t>
   </si>
@@ -249,16 +249,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1826,12 +1820,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1844,13 +1832,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2004,10 +1995,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2345,10 +2336,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2405,10 +2396,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2417,10 +2408,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2429,10 +2420,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2441,10 +2432,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2453,10 +2444,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2465,10 +2456,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2477,10 +2468,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2489,7 +2480,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2501,10 +2492,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2533,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2546,45 +2537,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>586</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>587</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2" t="s">
-        <v>591</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2592,37 +2580,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G3" t="s">
         <v>592</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
+        <v>590</v>
+      </c>
+      <c r="G4" t="s">
         <v>593</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" t="s">
-        <v>595</v>
-      </c>
-      <c r="G4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2654,85 +2635,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2741,16 +2722,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2759,16 +2740,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2777,16 +2758,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2795,16 +2776,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2813,16 +2794,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2831,16 +2812,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2849,16 +2830,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2867,16 +2848,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2885,16 +2866,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2903,16 +2884,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3217,90 +3198,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
         <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3329,65 +3310,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3420,137 +3401,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>180</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3577,104 +3558,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3701,16 +3682,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3719,1198 +3700,1198 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4934,18 +4915,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5001,13 +4982,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5021,13 +5002,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5052,10 +5033,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -5063,10 +5044,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -5076,41 +5057,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5121,7 +5102,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5132,7 +5113,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5140,10 +5121,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5151,7 +5132,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5160,7 +5141,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5180,16 +5161,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5197,16 +5178,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5223,16 +5204,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5257,19 +5238,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>251</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5277,16 +5258,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5297,13 +5278,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5331,13 +5312,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5345,10 +5326,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5356,10 +5337,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5367,10 +5348,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5378,10 +5359,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5411,10 +5392,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5435,10 +5416,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5461,10 +5442,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5555,29 +5536,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5598,7 +5579,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5681,16 +5662,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,7 +5679,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,13 +5687,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5758,179 +5739,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>557</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" t="s">
         <v>560</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>561</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>563</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" t="s">
         <v>564</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>565</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>566</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>567</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>568</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>569</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>570</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>571</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>572</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" t="s">
         <v>573</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="26" t="s">
         <v>574</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>173</v>
-      </c>
-      <c r="R2" t="s">
-        <v>575</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" t="s">
         <v>577</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H3" t="s">
         <v>578</v>
       </c>
-      <c r="D3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>565</v>
+      </c>
+      <c r="J3" t="s">
         <v>579</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="G3" t="s">
-        <v>565</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>580</v>
       </c>
-      <c r="I3" t="s">
-        <v>567</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>581</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>569</v>
+      </c>
+      <c r="N3" t="s">
+        <v>570</v>
+      </c>
+      <c r="O3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P3" t="s">
         <v>582</v>
       </c>
-      <c r="L3" t="s">
-        <v>583</v>
-      </c>
-      <c r="M3" t="s">
-        <v>571</v>
-      </c>
-      <c r="N3" t="s">
-        <v>572</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" t="s">
         <v>573</v>
       </c>
-      <c r="P3" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" t="s">
-        <v>575</v>
-      </c>
       <c r="S3" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5955,13 +5936,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -5969,13 +5950,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -5983,13 +5964,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533F4D0E-10AF-A149-BF61-9411858CA4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE05017E-4956-8047-9B66-08F65FE13BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignTiming" sheetId="19" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,10 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="594">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="620">
   <si>
     <t>Screening</t>
   </si>
@@ -63,15 +61,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -81,9 +70,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -96,36 +82,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -646,12 +608,6 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>BC/Procedure/Timeline</t>
@@ -1842,6 +1798,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1995,13 +2074,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2021,9 +2097,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2061,7 +2137,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2167,7 +2243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2309,7 +2385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2336,10 +2412,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2348,10 +2424,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2360,10 +2436,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2372,10 +2448,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2384,10 +2460,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2396,10 +2472,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2408,10 +2484,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2420,10 +2496,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2432,10 +2508,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2444,10 +2520,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2456,10 +2532,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2468,10 +2544,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2480,10 +2556,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -2492,10 +2568,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2523,10 +2599,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2543,36 +2681,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2581,29 +2719,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="G3" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G4" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2635,85 +2773,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2722,16 +2860,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2740,16 +2878,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2758,16 +2896,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2776,16 +2914,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2794,16 +2932,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2812,16 +2950,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2830,16 +2968,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2848,16 +2986,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2866,16 +3004,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2884,16 +3022,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3178,7 +3316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3198,90 +3336,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +3427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3310,65 +3448,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3381,7 +3519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3401,137 +3539,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +3678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3558,104 +3696,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D137"/>
   <sheetViews>
@@ -3682,1216 +3820,1216 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4900,7 +5038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4915,18 +5053,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4953,62 +5091,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5033,10 +5171,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -5044,10 +5182,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -5055,43 +5193,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5099,10 +5237,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5110,10 +5248,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5121,10 +5259,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5132,7 +5270,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5141,53 +5279,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5204,16 +5342,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5238,53 +5376,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5312,57 +5450,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5374,17 +5512,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -5392,258 +5530,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>447</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>584</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>586</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>524</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>587</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>586</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>589</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>580</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>581</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>582</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3D6F89-832C-2549-888D-E1CBCA0E9123}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H6" t="s">
+        <v>603</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5662,38 +5977,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5705,7 +6020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F9AFE-62C1-C445-A802-286AA50298F0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -5739,241 +6054,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>554</v>
-      </c>
       <c r="Q1" s="21" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H2" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2" t="s">
+        <v>553</v>
+      </c>
+      <c r="M2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N2" t="s">
+        <v>555</v>
+      </c>
+      <c r="O2" t="s">
+        <v>556</v>
+      </c>
+      <c r="P2" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
         <v>558</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="D2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="G2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H2" t="s">
-        <v>564</v>
-      </c>
-      <c r="I2" t="s">
-        <v>565</v>
-      </c>
-      <c r="J2" t="s">
-        <v>566</v>
-      </c>
-      <c r="K2" t="s">
-        <v>567</v>
-      </c>
-      <c r="L2" t="s">
-        <v>568</v>
-      </c>
-      <c r="M2" t="s">
-        <v>569</v>
-      </c>
-      <c r="N2" t="s">
-        <v>570</v>
-      </c>
-      <c r="O2" t="s">
-        <v>571</v>
-      </c>
-      <c r="P2" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" t="s">
-        <v>573</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3" t="s">
         <v>563</v>
       </c>
-      <c r="H3" t="s">
-        <v>578</v>
-      </c>
       <c r="I3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J3" t="s">
+        <v>564</v>
+      </c>
+      <c r="K3" t="s">
         <v>565</v>
       </c>
-      <c r="J3" t="s">
-        <v>579</v>
-      </c>
-      <c r="K3" t="s">
-        <v>580</v>
-      </c>
       <c r="L3" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="M3" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="N3" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="O3" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="P3" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE05017E-4956-8047-9B66-08F65FE13BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA921D12-7DDE-2C47-ADD5-99D2B56111AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="619">
   <si>
     <t>Screening</t>
   </si>
@@ -1701,18 +1701,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1749,12 +1743,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1921,6 +1909,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2071,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,9 +2094,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2137,7 +2134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2243,7 +2240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2385,7 +2382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2681,7 +2678,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>447</v>
@@ -2693,13 +2690,13 @@
         <v>524</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -2707,10 +2704,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2724,24 +2721,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" t="s">
         <v>573</v>
-      </c>
-      <c r="B3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5195,34 +5192,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5342,16 +5339,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5512,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5539,19 +5536,19 @@
         <v>447</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5568,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>195</v>
@@ -5591,7 +5588,7 @@
         <v>524</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5600,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>195</v>
@@ -5612,46 +5609,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5663,7 +5660,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5685,7 +5682,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>180</v>
@@ -5802,123 +5799,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I3" t="s">
         <v>603</v>
-      </c>
-      <c r="I3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -5926,31 +5923,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
       </c>
       <c r="D6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G6" t="s">
         <v>614</v>
       </c>
-      <c r="E6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F6" t="s">
-        <v>581</v>
-      </c>
-      <c r="G6" t="s">
-        <v>618</v>
-      </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -6024,8 +6021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F9AFE-62C1-C445-A802-286AA50298F0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6125,49 +6122,49 @@
         <v>545</v>
       </c>
       <c r="E2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" t="s">
         <v>547</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>617</v>
+      </c>
+      <c r="I2" t="s">
         <v>548</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>549</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>550</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>551</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>552</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>553</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>554</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>555</v>
-      </c>
-      <c r="O2" t="s">
-        <v>556</v>
-      </c>
-      <c r="P2" t="s">
-        <v>557</v>
       </c>
       <c r="Q2" t="s">
         <v>158</v>
       </c>
       <c r="R2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6175,58 +6172,58 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
         <v>545</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="G3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" t="s">
+        <v>548</v>
+      </c>
+      <c r="J3" t="s">
+        <v>560</v>
+      </c>
+      <c r="K3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L3" t="s">
         <v>562</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="G3" t="s">
-        <v>548</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>552</v>
+      </c>
+      <c r="N3" t="s">
+        <v>553</v>
+      </c>
+      <c r="O3" t="s">
+        <v>554</v>
+      </c>
+      <c r="P3" t="s">
         <v>563</v>
-      </c>
-      <c r="I3" t="s">
-        <v>550</v>
-      </c>
-      <c r="J3" t="s">
-        <v>564</v>
-      </c>
-      <c r="K3" t="s">
-        <v>565</v>
-      </c>
-      <c r="L3" t="s">
-        <v>566</v>
-      </c>
-      <c r="M3" t="s">
-        <v>554</v>
-      </c>
-      <c r="N3" t="s">
-        <v>555</v>
-      </c>
-      <c r="O3" t="s">
-        <v>556</v>
-      </c>
-      <c r="P3" t="s">
-        <v>567</v>
       </c>
       <c r="Q3" t="s">
         <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA921D12-7DDE-2C47-ADD5-99D2B56111AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B2919-3C33-184E-8940-B3F9C2A17D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1918,6 +1912,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2071,10 +2071,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2094,9 +2094,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2134,7 +2134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2240,7 +2240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2382,7 +2382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2409,10 +2409,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2612,13 +2612,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -2678,25 +2678,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2721,24 +2721,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
         <v>569</v>
       </c>
-      <c r="B4" t="s">
-        <v>571</v>
-      </c>
       <c r="G4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -2750,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2770,34 +2770,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>519</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>521</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2813,42 +2813,42 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>617</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>618</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2857,16 +2857,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2893,16 +2893,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2911,16 +2911,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2929,16 +2929,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2947,16 +2947,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2965,16 +2965,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2983,16 +2983,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3001,16 +3001,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3019,16 +3019,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3333,90 +3333,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3445,65 +3445,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3536,137 +3536,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3693,104 +3693,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3817,16 +3817,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3835,1198 +3835,1198 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5050,18 +5050,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5117,13 +5117,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5137,13 +5137,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5168,10 +5168,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -5192,41 +5192,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5237,7 +5237,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5248,7 +5248,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -5296,16 +5296,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5313,16 +5313,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5339,16 +5339,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5373,19 +5373,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5393,16 +5393,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5413,13 +5413,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5447,13 +5447,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5461,10 +5461,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5472,10 +5472,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5483,10 +5483,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5494,10 +5494,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5527,36 +5527,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -5565,30 +5565,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5597,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5609,46 +5609,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5660,7 +5660,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5682,22 +5682,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5708,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5787,135 +5787,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" t="s">
         <v>597</v>
-      </c>
-      <c r="E2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F2" t="s">
-        <v>576</v>
-      </c>
-      <c r="G2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" t="s">
         <v>600</v>
       </c>
-      <c r="B3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C3" t="s">
-        <v>602</v>
-      </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" t="s">
         <v>604</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" t="s">
         <v>605</v>
-      </c>
-      <c r="C4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G4" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" t="s">
         <v>608</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" t="s">
         <v>609</v>
       </c>
-      <c r="C5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G5" t="s">
-        <v>611</v>
-      </c>
       <c r="H5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -5923,31 +5923,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" t="s">
         <v>612</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>597</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>610</v>
-      </c>
-      <c r="E6" t="s">
-        <v>579</v>
-      </c>
-      <c r="F6" t="s">
-        <v>577</v>
-      </c>
-      <c r="G6" t="s">
-        <v>614</v>
-      </c>
-      <c r="H6" t="s">
-        <v>599</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -5974,16 +5974,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5999,13 +5999,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6021,7 +6021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F9AFE-62C1-C445-A802-286AA50298F0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6051,179 +6051,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>540</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
         <v>543</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>545</v>
       </c>
-      <c r="E2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" t="s">
         <v>546</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>547</v>
       </c>
-      <c r="H2" t="s">
-        <v>617</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>548</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>549</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>550</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>551</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>552</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>553</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>554</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>556</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" t="s">
+        <v>616</v>
+      </c>
+      <c r="I3" t="s">
         <v>546</v>
       </c>
-      <c r="G3" t="s">
-        <v>547</v>
-      </c>
-      <c r="H3" t="s">
-        <v>618</v>
-      </c>
-      <c r="I3" t="s">
-        <v>548</v>
-      </c>
       <c r="J3" t="s">
+        <v>558</v>
+      </c>
+      <c r="K3" t="s">
+        <v>559</v>
+      </c>
+      <c r="L3" t="s">
         <v>560</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>550</v>
+      </c>
+      <c r="N3" t="s">
+        <v>551</v>
+      </c>
+      <c r="O3" t="s">
+        <v>552</v>
+      </c>
+      <c r="P3" t="s">
         <v>561</v>
       </c>
-      <c r="L3" t="s">
-        <v>562</v>
-      </c>
-      <c r="M3" t="s">
-        <v>552</v>
-      </c>
-      <c r="N3" t="s">
-        <v>553</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
         <v>554</v>
       </c>
-      <c r="P3" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>556</v>
-      </c>
       <c r="S3" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B2919-3C33-184E-8940-B3F9C2A17D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB4A86-3EAC-AA45-B5CF-46B1DE73A916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="619">
   <si>
     <t>Screening</t>
   </si>
@@ -2071,10 +2071,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2750,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5192,34 +5192,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5339,16 +5339,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5509,11 +5509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5712,9 +5712,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5738,9 +5736,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB4A86-3EAC-AA45-B5CF-46B1DE73A916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B9FC9-69A8-2C46-B8B0-C8C6ECCFB4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1960" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48640" yWindow="3340" windowWidth="33000" windowHeight="22600" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="622">
   <si>
     <t>Screening</t>
   </si>
@@ -1919,12 +1919,21 @@
   <si>
     <t>Secondary Objective</t>
   </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1950,14 +1959,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2001,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2028,10 +2029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2065,16 +2062,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2408,7 +2405,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2420,7 +2417,7 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -2432,10 +2429,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
@@ -2444,7 +2441,7 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2456,7 +2453,7 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2468,7 +2465,7 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2480,7 +2477,7 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2492,10 +2489,10 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E8"/>
@@ -2504,7 +2501,7 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2516,7 +2513,7 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2528,7 +2525,7 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2540,7 +2537,7 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2552,10 +2549,10 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
@@ -2564,7 +2561,7 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2611,16 +2608,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2677,28 +2674,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2769,37 +2766,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3315,49 +3312,56 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -3367,33 +3371,47 @@
       <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="I3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="I4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3403,20 +3421,26 @@
       <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>83</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>135</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3447,22 +3471,22 @@
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3535,28 +3559,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3692,19 +3716,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3816,16 +3840,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3833,7 +3857,7 @@
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>249</v>
       </c>
@@ -3914,7 +3938,7 @@
       <c r="A12" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
         <v>260</v>
       </c>
@@ -3923,7 +3947,7 @@
       <c r="A13" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>261</v>
       </c>
@@ -3932,7 +3956,7 @@
       <c r="A14" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
         <v>262</v>
       </c>
@@ -3941,7 +3965,7 @@
       <c r="A15" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>263</v>
       </c>
@@ -3950,7 +3974,7 @@
       <c r="A16" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>264</v>
       </c>
@@ -3959,7 +3983,7 @@
       <c r="A17" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>265</v>
       </c>
@@ -3968,7 +3992,7 @@
       <c r="A18" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
         <v>266</v>
       </c>
@@ -3977,7 +4001,7 @@
       <c r="A19" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
         <v>253</v>
       </c>
@@ -3986,7 +4010,7 @@
       <c r="A20" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
         <v>267</v>
       </c>
@@ -3995,7 +4019,7 @@
       <c r="A21" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
         <v>268</v>
       </c>
@@ -4004,7 +4028,7 @@
       <c r="A22" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
         <v>269</v>
       </c>
@@ -4016,7 +4040,7 @@
       <c r="A23" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
         <v>270</v>
       </c>
@@ -4028,7 +4052,7 @@
       <c r="A24" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
         <v>271</v>
       </c>
@@ -4037,7 +4061,7 @@
       <c r="A25" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
         <v>272</v>
       </c>
@@ -4046,7 +4070,7 @@
       <c r="A26" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
         <v>273</v>
       </c>
@@ -4055,7 +4079,7 @@
       <c r="A27" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
         <v>274</v>
       </c>
@@ -4064,7 +4088,7 @@
       <c r="A28" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
         <v>275</v>
       </c>
@@ -4073,7 +4097,7 @@
       <c r="A29" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
         <v>276</v>
       </c>
@@ -4082,7 +4106,7 @@
       <c r="A30" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
         <v>277</v>
       </c>
@@ -4091,7 +4115,7 @@
       <c r="A31" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
         <v>278</v>
       </c>
@@ -4100,7 +4124,7 @@
       <c r="A32" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
         <v>279</v>
       </c>
@@ -4109,7 +4133,7 @@
       <c r="A33" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
         <v>280</v>
       </c>
@@ -4118,7 +4142,7 @@
       <c r="A34" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
         <v>281</v>
       </c>
@@ -4127,7 +4151,7 @@
       <c r="A35" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
         <v>282</v>
       </c>
@@ -4136,7 +4160,7 @@
       <c r="A36" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
         <v>283</v>
       </c>
@@ -4145,7 +4169,7 @@
       <c r="A37" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
         <v>284</v>
       </c>
@@ -4154,7 +4178,7 @@
       <c r="A38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
         <v>285</v>
       </c>
@@ -4163,7 +4187,7 @@
       <c r="A39" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
         <v>286</v>
       </c>
@@ -4172,7 +4196,7 @@
       <c r="A40" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
         <v>287</v>
       </c>
@@ -4181,7 +4205,7 @@
       <c r="A41" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
         <v>288</v>
       </c>
@@ -4190,7 +4214,7 @@
       <c r="A42" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
         <v>289</v>
       </c>
@@ -4199,7 +4223,7 @@
       <c r="A43" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
         <v>290</v>
       </c>
@@ -4211,7 +4235,7 @@
       <c r="A44" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
         <v>291</v>
       </c>
@@ -4220,7 +4244,7 @@
       <c r="A45" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
         <v>292</v>
       </c>
@@ -4229,7 +4253,7 @@
       <c r="A46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
         <v>293</v>
       </c>
@@ -4238,7 +4262,7 @@
       <c r="A47" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
         <v>294</v>
       </c>
@@ -4247,7 +4271,7 @@
       <c r="A48" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
         <v>295</v>
       </c>
@@ -4256,7 +4280,7 @@
       <c r="A49" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
         <v>296</v>
       </c>
@@ -4265,7 +4289,7 @@
       <c r="A50" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
         <v>378</v>
       </c>
@@ -4274,7 +4298,7 @@
       <c r="A51" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
         <v>297</v>
       </c>
@@ -4283,7 +4307,7 @@
       <c r="A52" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
         <v>298</v>
       </c>
@@ -4292,7 +4316,7 @@
       <c r="A53" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
         <v>299</v>
       </c>
@@ -4301,7 +4325,7 @@
       <c r="A54" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
         <v>300</v>
       </c>
@@ -4310,7 +4334,7 @@
       <c r="A55" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
         <v>301</v>
       </c>
@@ -4319,7 +4343,7 @@
       <c r="A56" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
         <v>302</v>
       </c>
@@ -4328,7 +4352,7 @@
       <c r="A57" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
         <v>303</v>
       </c>
@@ -4337,7 +4361,7 @@
       <c r="A58" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
         <v>304</v>
       </c>
@@ -4346,7 +4370,7 @@
       <c r="A59" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
         <v>305</v>
       </c>
@@ -4355,7 +4379,7 @@
       <c r="A60" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
         <v>306</v>
       </c>
@@ -4364,7 +4388,7 @@
       <c r="A61" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
         <v>307</v>
       </c>
@@ -4373,7 +4397,7 @@
       <c r="A62" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
         <v>308</v>
       </c>
@@ -4382,7 +4406,7 @@
       <c r="A63" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
         <v>309</v>
       </c>
@@ -4391,7 +4415,7 @@
       <c r="A64" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
         <v>310</v>
       </c>
@@ -4400,7 +4424,7 @@
       <c r="A65" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
         <v>311</v>
       </c>
@@ -4409,7 +4433,7 @@
       <c r="A66" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
         <v>312</v>
       </c>
@@ -4418,7 +4442,7 @@
       <c r="A67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
         <v>313</v>
       </c>
@@ -4427,7 +4451,7 @@
       <c r="A68" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
         <v>314</v>
       </c>
@@ -4436,7 +4460,7 @@
       <c r="A69" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
         <v>315</v>
       </c>
@@ -4445,7 +4469,7 @@
       <c r="A70" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B70" s="23"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
         <v>316</v>
       </c>
@@ -4454,7 +4478,7 @@
       <c r="A71" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
         <v>317</v>
       </c>
@@ -4463,7 +4487,7 @@
       <c r="A72" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
         <v>318</v>
       </c>
@@ -4472,7 +4496,7 @@
       <c r="A73" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
         <v>319</v>
       </c>
@@ -4481,7 +4505,7 @@
       <c r="A74" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
         <v>320</v>
       </c>
@@ -4490,7 +4514,7 @@
       <c r="A75" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
         <v>321</v>
       </c>
@@ -4499,7 +4523,7 @@
       <c r="A76" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
         <v>322</v>
       </c>
@@ -4508,7 +4532,7 @@
       <c r="A77" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
         <v>323</v>
       </c>
@@ -4517,7 +4541,7 @@
       <c r="A78" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
         <v>324</v>
       </c>
@@ -4526,7 +4550,7 @@
       <c r="A79" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
         <v>325</v>
       </c>
@@ -4535,7 +4559,7 @@
       <c r="A80" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
         <v>326</v>
       </c>
@@ -4544,7 +4568,7 @@
       <c r="A81" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
         <v>327</v>
       </c>
@@ -4553,7 +4577,7 @@
       <c r="A82" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
         <v>328</v>
       </c>
@@ -4562,7 +4586,7 @@
       <c r="A83" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B83" s="23"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
         <v>329</v>
       </c>
@@ -4571,7 +4595,7 @@
       <c r="A84" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
         <v>330</v>
       </c>
@@ -4580,7 +4604,7 @@
       <c r="A85" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
         <v>331</v>
       </c>
@@ -4589,7 +4613,7 @@
       <c r="A86" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
         <v>332</v>
       </c>
@@ -4598,7 +4622,7 @@
       <c r="A87" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
         <v>333</v>
       </c>
@@ -4607,7 +4631,7 @@
       <c r="A88" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
         <v>334</v>
       </c>
@@ -4616,7 +4640,7 @@
       <c r="A89" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B89" s="23"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
         <v>335</v>
       </c>
@@ -4625,7 +4649,7 @@
       <c r="A90" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
         <v>336</v>
       </c>
@@ -4634,7 +4658,7 @@
       <c r="A91" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
         <v>337</v>
       </c>
@@ -4643,7 +4667,7 @@
       <c r="A92" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
         <v>338</v>
       </c>
@@ -4652,7 +4676,7 @@
       <c r="A93" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
         <v>339</v>
       </c>
@@ -4661,7 +4685,7 @@
       <c r="A94" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B94" s="23"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
         <v>340</v>
       </c>
@@ -4670,7 +4694,7 @@
       <c r="A95" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B95" s="23"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
         <v>341</v>
       </c>
@@ -4679,7 +4703,7 @@
       <c r="A96" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B96" s="23"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
         <v>342</v>
       </c>
@@ -4688,7 +4712,7 @@
       <c r="A97" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B97" s="23"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
         <v>343</v>
       </c>
@@ -4697,7 +4721,7 @@
       <c r="A98" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B98" s="23"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
         <v>344</v>
       </c>
@@ -4706,7 +4730,7 @@
       <c r="A99" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B99" s="23"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
         <v>345</v>
       </c>
@@ -4715,7 +4739,7 @@
       <c r="A100" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
         <v>346</v>
       </c>
@@ -4724,7 +4748,7 @@
       <c r="A101" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
         <v>347</v>
       </c>
@@ -4733,7 +4757,7 @@
       <c r="A102" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
         <v>348</v>
       </c>
@@ -4742,7 +4766,7 @@
       <c r="A103" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B103" s="23"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
         <v>349</v>
       </c>
@@ -4751,7 +4775,7 @@
       <c r="A104" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B104" s="23"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
         <v>350</v>
       </c>
@@ -4760,7 +4784,7 @@
       <c r="A105" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B105" s="23"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
         <v>351</v>
       </c>
@@ -4769,7 +4793,7 @@
       <c r="A106" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B106" s="23"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
         <v>352</v>
       </c>
@@ -4778,7 +4802,7 @@
       <c r="A107" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="23"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
         <v>353</v>
       </c>
@@ -4787,7 +4811,7 @@
       <c r="A108" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B108" s="23"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
         <v>354</v>
       </c>
@@ -4796,7 +4820,7 @@
       <c r="A109" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B109" s="23"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
         <v>355</v>
       </c>
@@ -4805,7 +4829,7 @@
       <c r="A110" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B110" s="23"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
         <v>356</v>
       </c>
@@ -4814,7 +4838,7 @@
       <c r="A111" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B111" s="23"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
         <v>357</v>
       </c>
@@ -4823,7 +4847,7 @@
       <c r="A112" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B112" s="23"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
         <v>358</v>
       </c>
@@ -4832,7 +4856,7 @@
       <c r="A113" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B113" s="23"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
         <v>359</v>
       </c>
@@ -4841,7 +4865,7 @@
       <c r="A114" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B114" s="23"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
         <v>360</v>
       </c>
@@ -4850,7 +4874,7 @@
       <c r="A115" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B115" s="23"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
         <v>361</v>
       </c>
@@ -4859,7 +4883,7 @@
       <c r="A116" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B116" s="23"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
         <v>362</v>
       </c>
@@ -4868,7 +4892,7 @@
       <c r="A117" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B117" s="23"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
         <v>363</v>
       </c>
@@ -4877,7 +4901,7 @@
       <c r="A118" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B118" s="23"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
         <v>364</v>
       </c>
@@ -4886,7 +4910,7 @@
       <c r="A119" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B119" s="23"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
         <v>365</v>
       </c>
@@ -4895,7 +4919,7 @@
       <c r="A120" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B120" s="23"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
         <v>366</v>
       </c>
@@ -4904,7 +4928,7 @@
       <c r="A121" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B121" s="23"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
         <v>367</v>
       </c>
@@ -4913,7 +4937,7 @@
       <c r="A122" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B122" s="23"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
         <v>368</v>
       </c>
@@ -4922,7 +4946,7 @@
       <c r="A123" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
         <v>369</v>
       </c>
@@ -4931,7 +4955,7 @@
       <c r="A124" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B124" s="23"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
         <v>370</v>
       </c>
@@ -4940,7 +4964,7 @@
       <c r="A125" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B125" s="23"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
         <v>371</v>
       </c>
@@ -4949,7 +4973,7 @@
       <c r="A126" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B126" s="23"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
         <v>372</v>
       </c>
@@ -4958,7 +4982,7 @@
       <c r="A127" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B127" s="23"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
         <v>373</v>
       </c>
@@ -4967,7 +4991,7 @@
       <c r="A128" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B128" s="23"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
         <v>374</v>
       </c>
@@ -4976,7 +5000,7 @@
       <c r="A129" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B129" s="23"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
         <v>375</v>
       </c>
@@ -4985,7 +5009,7 @@
       <c r="A130" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B130" s="23"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
         <v>376</v>
       </c>
@@ -4994,7 +5018,7 @@
       <c r="A131" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B131" s="23"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
         <v>377</v>
       </c>
@@ -5087,22 +5111,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5167,115 +5191,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5339,16 +5363,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5372,19 +5396,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5446,13 +5470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5509,7 +5533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5526,13 +5550,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5552,13 +5576,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5578,13 +5602,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>522</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5604,8 +5628,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5625,8 +5649,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>583</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5646,8 +5670,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>585</v>
       </c>
       <c r="D6" s="2"/>
@@ -5659,7 +5683,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>586</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5681,7 +5705,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>587</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5701,13 +5725,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5969,16 +5993,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6046,61 +6070,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6120,7 +6144,7 @@
       <c r="E2" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>544</v>
       </c>
       <c r="G2" t="s">
@@ -6159,7 +6183,7 @@
       <c r="R2" t="s">
         <v>554</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="24" t="s">
         <v>555</v>
       </c>
     </row>
@@ -6179,7 +6203,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>544</v>
       </c>
       <c r="G3" t="s">
@@ -6218,7 +6242,7 @@
       <c r="R3" t="s">
         <v>554</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="24" t="s">
         <v>555</v>
       </c>
     </row>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4EFFD-41BC-AD41-9454-DF4CF8985C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C78D2FC-4218-3040-B031-7676CB8414EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52760" yWindow="500" windowWidth="49120" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51680" yWindow="500" windowWidth="49120" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="626">
   <si>
     <t>Screening</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -1937,6 +1934,12 @@
   </si>
   <si>
     <t>ACME France</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2403,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2416,10 +2419,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2455,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2467,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2476,10 +2479,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2488,10 +2491,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2500,10 +2503,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2512,10 +2515,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2524,10 +2527,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2536,10 +2539,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2548,10 +2551,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -2572,10 +2575,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2636,179 +2639,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>538</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" t="s">
         <v>540</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>541</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H2" t="s">
         <v>613</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>544</v>
       </c>
-      <c r="H2" t="s">
-        <v>614</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>545</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>546</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>547</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>548</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>549</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>550</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>551</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
         <v>552</v>
       </c>
-      <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="24" t="s">
         <v>553</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" t="s">
         <v>555</v>
       </c>
-      <c r="C3" t="s">
-        <v>556</v>
-      </c>
       <c r="D3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="G3" t="s">
         <v>543</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I3" t="s">
         <v>544</v>
       </c>
-      <c r="H3" t="s">
-        <v>615</v>
-      </c>
-      <c r="I3" t="s">
-        <v>545</v>
-      </c>
       <c r="J3" t="s">
+        <v>556</v>
+      </c>
+      <c r="K3" t="s">
         <v>557</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>558</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>548</v>
+      </c>
+      <c r="N3" t="s">
+        <v>549</v>
+      </c>
+      <c r="O3" t="s">
+        <v>550</v>
+      </c>
+      <c r="P3" t="s">
         <v>559</v>
       </c>
-      <c r="M3" t="s">
-        <v>549</v>
-      </c>
-      <c r="N3" t="s">
-        <v>550</v>
-      </c>
-      <c r="O3" t="s">
-        <v>551</v>
-      </c>
-      <c r="P3" t="s">
-        <v>560</v>
-      </c>
       <c r="Q3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R3" t="s">
+        <v>552</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>553</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -2833,44 +2836,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" t="s">
         <v>522</v>
       </c>
-      <c r="C2" t="s">
-        <v>523</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" t="s">
         <v>524</v>
       </c>
-      <c r="C3" t="s">
-        <v>525</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2899,36 +2902,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>563</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
         <v>564</v>
-      </c>
-      <c r="B2" t="s">
-        <v>565</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2937,29 +2940,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" t="s">
         <v>566</v>
       </c>
-      <c r="B3" t="s">
-        <v>567</v>
-      </c>
       <c r="G3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2991,85 +2994,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3078,16 +3081,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3096,16 +3099,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3114,16 +3117,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3132,16 +3135,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3150,16 +3153,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3168,16 +3171,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3186,16 +3189,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3204,16 +3207,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3222,16 +3225,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3240,16 +3243,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3555,116 +3558,116 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>132</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
         <v>133</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3693,65 +3696,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3784,137 +3787,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3941,104 +3944,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4065,16 +4068,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4083,1198 +4086,1198 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5298,18 +5301,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5345,7 +5348,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
@@ -5354,7 +5357,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5371,36 +5374,36 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
       <c r="G3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5427,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>22</v>
@@ -5440,10 +5443,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5453,10 +5456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5468,10 +5471,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -5479,10 +5482,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -5493,7 +5496,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -5504,7 +5507,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -5515,7 +5518,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -5526,7 +5529,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -5534,10 +5537,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>625</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5548,7 +5551,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -5556,10 +5559,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5567,88 +5570,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5673,19 +5710,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5693,16 +5730,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5713,13 +5750,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5747,13 +5784,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5761,10 +5798,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,10 +5809,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5783,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5794,10 +5831,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5827,68 +5864,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5897,58 +5934,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5960,7 +5997,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5982,22 +6019,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6008,7 +6045,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6017,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -6083,135 +6120,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" t="s">
         <v>592</v>
-      </c>
-      <c r="B2" t="s">
-        <v>593</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" t="s">
         <v>594</v>
       </c>
-      <c r="E2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>595</v>
-      </c>
-      <c r="H2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3" t="s">
         <v>597</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>598</v>
       </c>
-      <c r="C3" t="s">
-        <v>599</v>
-      </c>
       <c r="D3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F3" t="s">
         <v>573</v>
-      </c>
-      <c r="F3" t="s">
-        <v>574</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" t="s">
         <v>601</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" t="s">
         <v>602</v>
       </c>
-      <c r="C4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G4" t="s">
         <v>603</v>
-      </c>
-      <c r="E4" t="s">
-        <v>574</v>
-      </c>
-      <c r="F4" t="s">
-        <v>574</v>
-      </c>
-      <c r="G4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" t="s">
         <v>605</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" t="s">
         <v>606</v>
       </c>
-      <c r="C5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G5" t="s">
         <v>607</v>
       </c>
-      <c r="E5" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" t="s">
-        <v>574</v>
-      </c>
-      <c r="G5" t="s">
-        <v>608</v>
-      </c>
       <c r="H5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6219,31 +6256,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
         <v>609</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6" t="s">
         <v>610</v>
       </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>607</v>
-      </c>
-      <c r="E6" t="s">
-        <v>576</v>
-      </c>
-      <c r="F6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="H6" t="s">
-        <v>596</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -6270,16 +6307,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6287,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6295,13 +6332,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C78D2FC-4218-3040-B031-7676CB8414EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54BF36-A7D2-1A4E-911C-95A454BFA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51680" yWindow="500" windowWidth="49120" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1909,12 +1909,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -1940,13 +1934,19 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1982,6 +1982,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2015,7 +2022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2085,6 +2092,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2974,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3036,8 +3046,8 @@
       <c r="D2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>615</v>
+      <c r="E2" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>80</v>
@@ -3060,8 +3070,8 @@
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>616</v>
+      <c r="E3" s="28" t="s">
+        <v>625</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>81</v>
@@ -3567,7 +3577,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>93</v>
@@ -3585,7 +3595,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3617,7 +3627,7 @@
         <v>99</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3626,7 +3636,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3635,7 +3645,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3667,7 +3677,7 @@
         <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5391,10 +5401,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3" t="s">
         <v>621</v>
-      </c>
-      <c r="D3" t="s">
-        <v>623</v>
       </c>
       <c r="E3" t="s">
         <v>134</v>
@@ -5427,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>22</v>
@@ -5443,10 +5453,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +5468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5537,7 +5547,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>123</v>
@@ -5601,7 +5611,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5673,6 +5683,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -5681,11 +5696,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/multiple_column_names.xlsx
+++ b/tests/integration_test_files/multiple_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54BF36-A7D2-1A4E-911C-95A454BFA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF262-0DC0-AE40-A253-88F16406452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -458,12 +458,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -1940,6 +1934,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2084,6 +2084,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2092,9 +2095,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,10 +2429,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2649,61 +2649,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>536</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2711,58 +2711,58 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" t="s">
         <v>539</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>541</v>
       </c>
-      <c r="E2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I2" t="s">
         <v>542</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>543</v>
       </c>
-      <c r="H2" t="s">
-        <v>613</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>544</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>545</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>546</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>547</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>548</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>549</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" t="s">
         <v>550</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="24" t="s">
         <v>551</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>552</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2770,58 +2770,58 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="G3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3" t="s">
+        <v>612</v>
+      </c>
+      <c r="I3" t="s">
         <v>542</v>
       </c>
-      <c r="G3" t="s">
-        <v>543</v>
-      </c>
-      <c r="H3" t="s">
-        <v>614</v>
-      </c>
-      <c r="I3" t="s">
-        <v>544</v>
-      </c>
       <c r="J3" t="s">
+        <v>554</v>
+      </c>
+      <c r="K3" t="s">
+        <v>555</v>
+      </c>
+      <c r="L3" t="s">
         <v>556</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>546</v>
+      </c>
+      <c r="N3" t="s">
+        <v>547</v>
+      </c>
+      <c r="O3" t="s">
+        <v>548</v>
+      </c>
+      <c r="P3" t="s">
         <v>557</v>
       </c>
-      <c r="L3" t="s">
-        <v>558</v>
-      </c>
-      <c r="M3" t="s">
-        <v>548</v>
-      </c>
-      <c r="N3" t="s">
-        <v>549</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" t="s">
         <v>550</v>
       </c>
-      <c r="P3" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R3" t="s">
-        <v>552</v>
-      </c>
       <c r="S3" s="24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -2846,13 +2846,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>46</v>
@@ -2863,10 +2863,10 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>47</v>
@@ -2877,10 +2877,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -2912,25 +2912,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>50</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2955,24 +2955,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" t="s">
         <v>565</v>
       </c>
-      <c r="B4" t="s">
-        <v>567</v>
-      </c>
       <c r="G4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -2984,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3004,16 +3004,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>53</v>
@@ -3025,13 +3025,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>517</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>55</v>
@@ -3047,7 +3047,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>80</v>
@@ -3070,8 +3070,8 @@
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>625</v>
+      <c r="E3" s="25" t="s">
+        <v>623</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>81</v>
@@ -3577,7 +3577,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>93</v>
@@ -3595,7 +3595,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3609,7 +3609,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
@@ -3627,7 +3627,7 @@
         <v>99</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3645,7 +3645,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3659,7 +3659,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s">
         <v>131</v>
@@ -3677,7 +3677,7 @@
         <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3709,62 +3709,62 @@
         <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3800,134 +3800,134 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3957,101 +3957,101 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4078,16 +4078,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4096,1198 +4096,1198 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5334,8 +5334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5358,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
@@ -5384,13 +5384,13 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>625</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5401,19 +5401,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" t="s">
         <v>619</v>
       </c>
-      <c r="D3" t="s">
-        <v>621</v>
-      </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5437,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>22</v>
@@ -5453,10 +5453,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5481,146 +5481,146 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="B7" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+        <v>135</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+        <v>136</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+        <v>620</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -5640,16 +5640,16 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5657,16 +5657,16 @@
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5683,11 +5683,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -5696,6 +5691,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5720,19 +5720,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5740,16 +5740,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5760,13 +5760,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5794,13 +5794,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5808,10 +5808,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5819,10 +5819,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5830,10 +5830,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5841,10 +5841,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5874,36 +5874,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>45</v>
@@ -5912,30 +5912,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5944,10 +5944,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5956,46 +5956,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6007,7 +6007,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6029,22 +6029,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6130,135 +6130,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H2" t="s">
         <v>593</v>
-      </c>
-      <c r="E2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G2" t="s">
-        <v>594</v>
-      </c>
-      <c r="H2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" t="s">
         <v>596</v>
       </c>
-      <c r="B3" t="s">
-        <v>597</v>
-      </c>
-      <c r="C3" t="s">
-        <v>598</v>
-      </c>
       <c r="D3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" t="s">
         <v>600</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G4" t="s">
         <v>601</v>
-      </c>
-      <c r="C4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D4" t="s">
-        <v>602</v>
-      </c>
-      <c r="E4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" t="s">
         <v>604</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" t="s">
         <v>605</v>
       </c>
-      <c r="C5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E5" t="s">
-        <v>574</v>
-      </c>
-      <c r="F5" t="s">
-        <v>573</v>
-      </c>
-      <c r="G5" t="s">
-        <v>607</v>
-      </c>
       <c r="H5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6266,31 +6266,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" t="s">
         <v>608</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>593</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E6" t="s">
-        <v>575</v>
-      </c>
-      <c r="F6" t="s">
-        <v>573</v>
-      </c>
-      <c r="G6" t="s">
-        <v>610</v>
-      </c>
-      <c r="H6" t="s">
-        <v>595</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -6317,16 +6317,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6334,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6342,13 +6342,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
